--- a/backend/spec/testTopLinkerUpload.xlsx
+++ b/backend/spec/testTopLinkerUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vac765/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vac765/git/archivesspace-bulk/backend/spec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2986BE9-420F-AF48-8411-51A8401CB4AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38454CB-4FA1-3145-A208-4CB5F33687F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="23920" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>Mapping - ArchivesSpace Resource record FIELD with comments</t>
   </si>
   <si>
-    <t>ArchivesSpace field code (please don't edit this row)</t>
-  </si>
-  <si>
     <t>archival_object_id</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>folder</t>
+  </si>
+  <si>
+    <t>ArchivesSpace field code</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:R10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,66 +1062,66 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6">
         <v>54555</v>
@@ -1219,7 +1219,7 @@
         <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -1245,16 +1245,16 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7">
         <v>54555</v>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1295,16 +1295,16 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8">
         <v>54555</v>
@@ -1319,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>154691</v>
@@ -1347,16 +1347,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>154692</v>
